--- a/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
+++ b/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="hyfo" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="rivervis" sheetId="11" r:id="rId12"/>
     <sheet name="hddtools" sheetId="12" r:id="rId13"/>
     <sheet name="waterData" sheetId="13" r:id="rId14"/>
+    <sheet name="hyfoGOF" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186">
   <si>
     <t>Method</t>
   </si>
@@ -3069,6 +3070,522 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>br2</t>
+  </si>
+  <si>
+    <t>br2.data.frame</t>
+  </si>
+  <si>
+    <t>br2.default</t>
+  </si>
+  <si>
+    <t>br2.matrix</t>
+  </si>
+  <si>
+    <t>br2.zoo</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>Coefficient of persistence</t>
+  </si>
+  <si>
+    <t>持久性系数</t>
+  </si>
+  <si>
+    <t>cp.data.frame</t>
+  </si>
+  <si>
+    <t>cp.default</t>
+  </si>
+  <si>
+    <t>cp.matrix</t>
+  </si>
+  <si>
+    <t>cp.zoo</t>
+  </si>
+  <si>
+    <t>符合指数</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Index of Agreement</t>
+  </si>
+  <si>
+    <t>d.data.frame</t>
+  </si>
+  <si>
+    <t>d.default</t>
+  </si>
+  <si>
+    <t>d.matrix</t>
+  </si>
+  <si>
+    <t>d.zoo</t>
+  </si>
+  <si>
+    <t>EgaEnEstellaQts</t>
+  </si>
+  <si>
+    <t>Ega in "Estella" (Q071), ts with daily streamflows.</t>
+  </si>
+  <si>
+    <t>Ega river数据</t>
+  </si>
+  <si>
+    <t>ggof</t>
+  </si>
+  <si>
+    <t>Graphical Goodness of Fit</t>
+  </si>
+  <si>
+    <t>吻合度绘图</t>
+  </si>
+  <si>
+    <t>gof</t>
+  </si>
+  <si>
+    <t>Numerical Goodness-of-fit measures</t>
+  </si>
+  <si>
+    <t>数字化吻合度</t>
+  </si>
+  <si>
+    <t>gof.data.frame</t>
+  </si>
+  <si>
+    <t>gof.default</t>
+  </si>
+  <si>
+    <t>gof.matrix</t>
+  </si>
+  <si>
+    <t>gof.zoo</t>
+  </si>
+  <si>
+    <t>hydroGOF</t>
+  </si>
+  <si>
+    <t>Goodness-of-fit (GoF) functions for numerical and graphical comparison of simulated and observed time series, mainly focused on hydrological modelling.</t>
+  </si>
+  <si>
+    <t>KGE</t>
+  </si>
+  <si>
+    <t>Kling-Gupta Efficiency</t>
+  </si>
+  <si>
+    <t>Kling-Gupta能效</t>
+  </si>
+  <si>
+    <t>KGE.data.frame</t>
+  </si>
+  <si>
+    <t>KGE.default</t>
+  </si>
+  <si>
+    <t>KGE.matrix</t>
+  </si>
+  <si>
+    <t>KGE.zoo</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error</t>
+  </si>
+  <si>
+    <t>平均绝对误差</t>
+  </si>
+  <si>
+    <t>mae.data.frame</t>
+  </si>
+  <si>
+    <t>mae.default</t>
+  </si>
+  <si>
+    <t>mae.matrix</t>
+  </si>
+  <si>
+    <t>mae.zoo</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>Modified index of agreement</t>
+  </si>
+  <si>
+    <t>修改协议指数</t>
+  </si>
+  <si>
+    <t>md.data.frame</t>
+  </si>
+  <si>
+    <t>md.default</t>
+  </si>
+  <si>
+    <t>md.matrix</t>
+  </si>
+  <si>
+    <t>md.zoo</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>Mean Error</t>
+  </si>
+  <si>
+    <t>me.data.frame</t>
+  </si>
+  <si>
+    <t>me.default</t>
+  </si>
+  <si>
+    <t>me.matrix</t>
+  </si>
+  <si>
+    <t>me.zoo</t>
+  </si>
+  <si>
+    <t>mNSE</t>
+  </si>
+  <si>
+    <t>Modified Nash-Sutcliffe efficiency</t>
+  </si>
+  <si>
+    <t>mNSE.data.frame</t>
+  </si>
+  <si>
+    <t>mNSE.default</t>
+  </si>
+  <si>
+    <t>mNSE.matrix</t>
+  </si>
+  <si>
+    <t>mNSE.zoo</t>
+  </si>
+  <si>
+    <t>mNSeff</t>
+  </si>
+  <si>
+    <t>mse</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t>mse.data.frame</t>
+  </si>
+  <si>
+    <t>mse.default</t>
+  </si>
+  <si>
+    <t>mse.matrix</t>
+  </si>
+  <si>
+    <t>mse.zoo</t>
+  </si>
+  <si>
+    <t>-- N --</t>
+  </si>
+  <si>
+    <t>nrmse</t>
+  </si>
+  <si>
+    <t>Normalized Root Mean Square Error</t>
+  </si>
+  <si>
+    <t>标准化均根方误差</t>
+  </si>
+  <si>
+    <t>nrmse.data.frame</t>
+  </si>
+  <si>
+    <t>nrmse.default</t>
+  </si>
+  <si>
+    <t>nrmse.matrix</t>
+  </si>
+  <si>
+    <t>nrmse.zoo</t>
+  </si>
+  <si>
+    <t>Nash-Sutcliffe Efficiency</t>
+  </si>
+  <si>
+    <t>NSE.data.frame</t>
+  </si>
+  <si>
+    <t>NSE.default</t>
+  </si>
+  <si>
+    <t>NSE.matrix</t>
+  </si>
+  <si>
+    <t>NSE.zoo</t>
+  </si>
+  <si>
+    <t>NSeff</t>
+  </si>
+  <si>
+    <t>-- P --</t>
+  </si>
+  <si>
+    <t>pbias</t>
+  </si>
+  <si>
+    <t>Percent Bias</t>
+  </si>
+  <si>
+    <t>百分比偏差</t>
+  </si>
+  <si>
+    <t>pbias.data.frame</t>
+  </si>
+  <si>
+    <t>pbias.default</t>
+  </si>
+  <si>
+    <t>pbias.matrix</t>
+  </si>
+  <si>
+    <t>pbias.zoo</t>
+  </si>
+  <si>
+    <t>pbiasfdc</t>
+  </si>
+  <si>
+    <t>Percent Bias in the Slope of the Midsegment of the Flow Duration Curve</t>
+  </si>
+  <si>
+    <t>pbiasfdc.data.frame</t>
+  </si>
+  <si>
+    <t>pbiasfdc.default</t>
+  </si>
+  <si>
+    <t>pbiasfdc.matrix</t>
+  </si>
+  <si>
+    <t>pbiasfdc.zoo</t>
+  </si>
+  <si>
+    <t>pfactor</t>
+  </si>
+  <si>
+    <t>P-factor</t>
+  </si>
+  <si>
+    <t>pfactor.data.frame</t>
+  </si>
+  <si>
+    <t>pfactor.default</t>
+  </si>
+  <si>
+    <t>pfactor.matrix</t>
+  </si>
+  <si>
+    <t>plot2</t>
+  </si>
+  <si>
+    <t>Plotting 2 Time Series</t>
+  </si>
+  <si>
+    <t>plotbands</t>
+  </si>
+  <si>
+    <t>Plot a ts with observed values and two confidence bounds</t>
+  </si>
+  <si>
+    <t>置信区间</t>
+  </si>
+  <si>
+    <t>plotbandsonly</t>
+  </si>
+  <si>
+    <t>Adds uncertainty bounds to an existing plot.</t>
+  </si>
+  <si>
+    <t>rd</t>
+  </si>
+  <si>
+    <t>Relative Index of Agreement</t>
+  </si>
+  <si>
+    <t>rd.data.frame</t>
+  </si>
+  <si>
+    <t>rd.default</t>
+  </si>
+  <si>
+    <t>rd.matrix</t>
+  </si>
+  <si>
+    <t>rd.zoo</t>
+  </si>
+  <si>
+    <t>rfactor</t>
+  </si>
+  <si>
+    <t>R-factor</t>
+  </si>
+  <si>
+    <t>rfactor.data.frame</t>
+  </si>
+  <si>
+    <t>rfactor.default</t>
+  </si>
+  <si>
+    <t>rfactor.matrix</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>Root Mean Square Error</t>
+  </si>
+  <si>
+    <t>rmse.data.frame</t>
+  </si>
+  <si>
+    <t>rmse.default</t>
+  </si>
+  <si>
+    <t>rmse.matrix</t>
+  </si>
+  <si>
+    <t>rmse.zoo</t>
+  </si>
+  <si>
+    <t>rNSE</t>
+  </si>
+  <si>
+    <t>Relative Nash-Sutcliffe efficiency</t>
+  </si>
+  <si>
+    <t>rNSE.data.frame</t>
+  </si>
+  <si>
+    <t>rNSE.default</t>
+  </si>
+  <si>
+    <t>rNSE.matrix</t>
+  </si>
+  <si>
+    <t>rNSE.zoo</t>
+  </si>
+  <si>
+    <t>rNSeff</t>
+  </si>
+  <si>
+    <t>rPearson</t>
+  </si>
+  <si>
+    <t>rPearson.data.frame</t>
+  </si>
+  <si>
+    <t>rPearson.default</t>
+  </si>
+  <si>
+    <t>rPearson.matrix</t>
+  </si>
+  <si>
+    <t>rPearson.zoo</t>
+  </si>
+  <si>
+    <t>rSD</t>
+  </si>
+  <si>
+    <t>Ratio of Standard Deviations</t>
+  </si>
+  <si>
+    <t>标准偏差比例</t>
+  </si>
+  <si>
+    <t>rSD.data.frame</t>
+  </si>
+  <si>
+    <t>rSD.default</t>
+  </si>
+  <si>
+    <t>rSD.matrix</t>
+  </si>
+  <si>
+    <t>rSD.zoo</t>
+  </si>
+  <si>
+    <t>rsr</t>
+  </si>
+  <si>
+    <t>Ratio of RMSE to the standard deviation of the observations</t>
+  </si>
+  <si>
+    <t>rsr.data.frame</t>
+  </si>
+  <si>
+    <t>rsr.default</t>
+  </si>
+  <si>
+    <t>rsr.matrix</t>
+  </si>
+  <si>
+    <t>rsr.zoo</t>
+  </si>
+  <si>
+    <t>ssq</t>
+  </si>
+  <si>
+    <t>Sum of the Squared Residuals</t>
+  </si>
+  <si>
+    <t>平方和</t>
+  </si>
+  <si>
+    <t>ssq.data.frame</t>
+  </si>
+  <si>
+    <t>ssq.default</t>
+  </si>
+  <si>
+    <t>ssq.matrix</t>
+  </si>
+  <si>
+    <t>valindex</t>
+  </si>
+  <si>
+    <t>Valid Indexes</t>
+  </si>
+  <si>
+    <t>valindex.default</t>
+  </si>
+  <si>
+    <t>valindex.matrix</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Volumetric Efficiency</t>
+  </si>
+  <si>
+    <t>VE.data.frame</t>
+  </si>
+  <si>
+    <t>VE.default</t>
+  </si>
+  <si>
+    <t>VE.matrix</t>
+  </si>
+  <si>
+    <t>VE.zoo</t>
   </si>
 </sst>
 </file>
@@ -3077,14 +3594,28 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3097,24 +3628,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF2E3033"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3147,82 +3664,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3251,19 +3694,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3285,18 +3750,106 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3313,6 +3866,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3372,12 +3973,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3385,78 +3980,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3494,45 +4017,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3553,6 +4037,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3578,16 +4092,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3599,10 +4122,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3611,141 +4134,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3772,10 +4298,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4122,10 +4648,10 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -4136,10 +4662,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -4150,10 +4676,10 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
@@ -4161,10 +4687,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
@@ -4172,10 +4698,10 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
@@ -4183,42 +4709,42 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C11" t="s">
@@ -4226,18 +4752,18 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
@@ -4245,34 +4771,34 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
@@ -4280,10 +4806,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
@@ -4291,26 +4817,26 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
@@ -4318,10 +4844,10 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D22" t="s">
@@ -4329,10 +4855,10 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="s">
@@ -4340,34 +4866,34 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C27" t="s">
@@ -4375,69 +4901,69 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:3">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="10" t="s">
         <v>83</v>
       </c>
       <c r="C35" t="s">
@@ -4445,10 +4971,10 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
@@ -4456,10 +4982,10 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4506,7 +5032,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B3" t="s">
@@ -4517,7 +5043,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B4" t="s">
@@ -4525,7 +5051,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B5" t="s">
@@ -4533,7 +5059,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B6" t="s">
@@ -4544,7 +5070,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B7" t="s">
@@ -4555,7 +5081,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B8" t="s">
@@ -4563,7 +5089,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B9" t="s">
@@ -4571,7 +5097,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B10" t="s">
@@ -4582,7 +5108,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B11" t="s">
@@ -4590,7 +5116,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B12" t="s">
@@ -4598,7 +5124,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B13" t="s">
@@ -4622,7 +5148,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B16" t="s">
@@ -5143,7 +5669,7 @@
       <c r="B1" t="s">
         <v>810</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>811</v>
       </c>
     </row>
@@ -5154,18 +5680,18 @@
       <c r="B2" t="s">
         <v>813</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>816</v>
       </c>
     </row>
@@ -5245,51 +5771,51 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:2">
-      <c r="A12" s="2" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:2">
-      <c r="A13" s="2" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:2">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:2">
-      <c r="A15" s="2" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:2">
-      <c r="A16" s="2" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:2">
-      <c r="A17" s="2" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>835</v>
       </c>
     </row>
@@ -5396,7 +5922,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>860</v>
       </c>
       <c r="B30" t="s">
@@ -5404,7 +5930,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B31" t="s">
@@ -5412,7 +5938,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>862</v>
       </c>
       <c r="B32" t="s">
@@ -5420,7 +5946,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B33" t="s">
@@ -5428,7 +5954,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B34" t="s">
@@ -5436,7 +5962,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>864</v>
       </c>
       <c r="B35" t="s">
@@ -5444,7 +5970,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B36" t="s">
@@ -6041,7 +6567,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>985</v>
       </c>
       <c r="B4" t="s">
@@ -6071,7 +6597,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>993</v>
       </c>
       <c r="B7" t="s">
@@ -6090,7 +6616,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>997</v>
       </c>
       <c r="B9" t="s">
@@ -6101,7 +6627,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>1000</v>
       </c>
       <c r="B10" t="s">
@@ -6117,7 +6643,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>1004</v>
       </c>
       <c r="B12" t="s">
@@ -6128,7 +6654,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>1006</v>
       </c>
       <c r="B13" t="s">
@@ -6162,6 +6688,1162 @@
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A2:C154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="74.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6194,10 +7876,10 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C2" t="s">
@@ -6205,18 +7887,18 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C4" t="s">
@@ -6224,10 +7906,10 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C5" t="s">
@@ -6235,10 +7917,10 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C6" t="s">
@@ -6246,34 +7928,34 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C10" t="s">
@@ -6281,50 +7963,50 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C16" t="s">
@@ -6332,10 +8014,10 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C17" t="s">
@@ -6343,26 +8025,26 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C20" t="s">
@@ -6370,10 +8052,10 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C21" t="s">
@@ -6415,7 +8097,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B2" t="s">
@@ -6445,7 +8127,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B5" t="s">
@@ -6467,7 +8149,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>154</v>
       </c>
       <c r="B7" t="s">
@@ -6478,7 +8160,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>157</v>
       </c>
       <c r="B8" t="s">
@@ -6489,7 +8171,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>160</v>
       </c>
       <c r="B9" t="s">
@@ -6511,7 +8193,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B11" t="s">
@@ -6544,7 +8226,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>173</v>
       </c>
       <c r="B14" t="s">
@@ -6596,7 +8278,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>185</v>
       </c>
       <c r="B19" t="s">
@@ -6607,7 +8289,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B20" t="s">
@@ -6618,7 +8300,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B21" t="s">
@@ -6626,7 +8308,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B22" t="s">
@@ -6634,7 +8316,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B23" t="s">
@@ -6645,7 +8327,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>197</v>
       </c>
       <c r="B24" t="s">
@@ -6653,7 +8335,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>198</v>
       </c>
       <c r="B25" t="s">
@@ -6661,7 +8343,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>200</v>
       </c>
       <c r="B26" t="s">
@@ -6669,7 +8351,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>202</v>
       </c>
       <c r="B27" t="s">
@@ -6677,7 +8359,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B28" t="s">
@@ -6685,7 +8367,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>206</v>
       </c>
       <c r="B29" t="s">
@@ -6696,7 +8378,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B30" t="s">
@@ -6834,7 +8516,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="4" t="s">
         <v>238</v>
       </c>
       <c r="B45" t="s">
@@ -6869,7 +8551,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="4" t="s">
         <v>244</v>
       </c>
       <c r="B49" t="s">
@@ -6949,7 +8631,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B4" t="s">
@@ -6968,7 +8650,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B6" t="s">
@@ -6979,7 +8661,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B7" t="s">
@@ -7096,7 +8778,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B19" t="s">
@@ -7279,7 +8961,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B40" t="s">
@@ -7287,7 +8969,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B41" t="s">
@@ -7295,7 +8977,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B42" t="s">
@@ -7303,7 +8985,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>348</v>
       </c>
       <c r="B43" t="s">
@@ -7311,7 +8993,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B44" t="s">
@@ -7325,7 +9007,7 @@
       <c r="B45" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7341,7 +9023,7 @@
   <sheetPr/>
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+    <sheetView topLeftCell="A123" workbookViewId="0">
       <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
@@ -7411,7 +9093,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B13" t="s">
@@ -7427,7 +9109,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B17" t="s">
@@ -7467,7 +9149,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B22" t="s">
@@ -7507,7 +9189,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B27" t="s">
@@ -7518,7 +9200,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>384</v>
       </c>
       <c r="B28" t="s">
@@ -7529,7 +9211,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B29" t="s">
@@ -7569,7 +9251,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B34" t="s">
@@ -7623,7 +9305,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B40" t="s">
@@ -7712,7 +9394,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B52" t="s">
@@ -7752,7 +9434,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>429</v>
       </c>
       <c r="B59" t="s">
@@ -7851,7 +9533,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B75" t="s">
@@ -7859,7 +9541,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B76" t="s">
@@ -7886,7 +9568,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>454</v>
       </c>
       <c r="B79" t="s">
@@ -7894,7 +9576,7 @@
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B80" t="s">
@@ -7902,7 +9584,7 @@
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B81" t="s">
@@ -7910,7 +9592,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B82" t="s">
@@ -8035,7 +9717,7 @@
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B104" t="s">
@@ -8163,7 +9845,7 @@
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>503</v>
       </c>
       <c r="B120" t="s">
@@ -8692,7 +10374,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>591</v>
       </c>
       <c r="B3" t="s">
@@ -8703,7 +10385,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>594</v>
       </c>
       <c r="B4" t="s">
@@ -8714,7 +10396,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B5" t="s">
@@ -8725,7 +10407,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>600</v>
       </c>
       <c r="B6" t="s">
@@ -8736,7 +10418,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>603</v>
       </c>
       <c r="B7" t="s">
@@ -8747,7 +10429,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>606</v>
       </c>
       <c r="B8" t="s">
@@ -8758,7 +10440,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>609</v>
       </c>
       <c r="B9" t="s">
@@ -8769,7 +10451,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>612</v>
       </c>
       <c r="B10" t="s">
@@ -8780,7 +10462,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>615</v>
       </c>
       <c r="B11" t="s">
@@ -8788,7 +10470,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>617</v>
       </c>
       <c r="B12" t="s">
@@ -8799,7 +10481,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>620</v>
       </c>
       <c r="B13" t="s">
@@ -8810,7 +10492,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>623</v>
       </c>
       <c r="B14" t="s">
@@ -8821,7 +10503,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>626</v>
       </c>
       <c r="B15" t="s">
@@ -8829,7 +10511,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>628</v>
       </c>
       <c r="B16" t="s">
@@ -8837,7 +10519,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>630</v>
       </c>
       <c r="B17" t="s">
@@ -8845,7 +10527,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>632</v>
       </c>
       <c r="B18" t="s">
@@ -8918,7 +10600,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B2" t="s">

--- a/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
+++ b/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_project\大数据与智慧河流\关于水文处理R包的综述\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1514DA79-FB5C-4FF2-9E86-DDC4C610DB4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyfo" sheetId="1" r:id="rId1"/>
@@ -22,13 +28,14 @@
     <sheet name="hddtools" sheetId="12" r:id="rId13"/>
     <sheet name="waterData" sheetId="13" r:id="rId14"/>
     <sheet name="hyfoGOF" sheetId="16" r:id="rId15"/>
+    <sheet name="lfstat" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1320">
   <si>
     <t>Method</t>
   </si>
@@ -3586,19 +3593,436 @@
   </si>
   <si>
     <t>VE.zoo</t>
+  </si>
+  <si>
+    <t>lfstat-package</t>
+  </si>
+  <si>
+    <t>Calculates Low Flow Statistics for daily stream flow data</t>
+  </si>
+  <si>
+    <t>as.lfobj</t>
+  </si>
+  <si>
+    <t>Coerce to class lfobj</t>
+  </si>
+  <si>
+    <t>as.lfobj.xts</t>
+  </si>
+  <si>
+    <t>as.lfobj.zoo</t>
+  </si>
+  <si>
+    <t>as.xts.lfobj</t>
+  </si>
+  <si>
+    <t>Convert Object To Class xts</t>
+  </si>
+  <si>
+    <t>baseflow</t>
+  </si>
+  <si>
+    <t>Calculate the baseflow of a river</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>Base Flow Index</t>
+  </si>
+  <si>
+    <t>bfplot</t>
+  </si>
+  <si>
+    <t>Base Flow Plot</t>
+  </si>
+  <si>
+    <t>cdf_ev</t>
+  </si>
+  <si>
+    <t>Reversed functions for several Extreme Value Distributions</t>
+  </si>
+  <si>
+    <t>check_distribution</t>
+  </si>
+  <si>
+    <t>Checks if a Distribution is suited</t>
+  </si>
+  <si>
+    <t>createlfobj</t>
+  </si>
+  <si>
+    <t>Create an lfobj for further Low Flow Analysis</t>
+  </si>
+  <si>
+    <t>createlfobj.data.frame</t>
+  </si>
+  <si>
+    <t>createlfobj.default</t>
+  </si>
+  <si>
+    <t>createlfobj.lfobj</t>
+  </si>
+  <si>
+    <t>createlfobj.ts</t>
+  </si>
+  <si>
+    <t>dmcurve</t>
+  </si>
+  <si>
+    <t>evfit</t>
+  </si>
+  <si>
+    <t>Fit an extreme value distribution to observations</t>
+  </si>
+  <si>
+    <t>evquantile</t>
+  </si>
+  <si>
+    <t>ev_return_period</t>
+  </si>
+  <si>
+    <t>Estimate the return period for given quantiles</t>
+  </si>
+  <si>
+    <t>fill_na</t>
+  </si>
+  <si>
+    <t>find_droughts</t>
+  </si>
+  <si>
+    <t>Identifying Low Flow Periods</t>
+  </si>
+  <si>
+    <t>flowunit</t>
+  </si>
+  <si>
+    <t>Set and retrieve unit of the discharge</t>
+  </si>
+  <si>
+    <t>flowunit.lfobj</t>
+  </si>
+  <si>
+    <t>flowunit.xts</t>
+  </si>
+  <si>
+    <t>flowunit&lt;-</t>
+  </si>
+  <si>
+    <t>flowunit&lt;-.lfobj</t>
+  </si>
+  <si>
+    <t>flowunit&lt;-.xts</t>
+  </si>
+  <si>
+    <t>gringorten</t>
+  </si>
+  <si>
+    <t>Hydrograph</t>
+  </si>
+  <si>
+    <t>hyear_start</t>
+  </si>
+  <si>
+    <t>Extract or guess the Start of a Hydrological Year</t>
+  </si>
+  <si>
+    <t>hyear_start.data.frame</t>
+  </si>
+  <si>
+    <t>hyear_start.xts</t>
+  </si>
+  <si>
+    <t>hyear_start&lt;-</t>
+  </si>
+  <si>
+    <t>hyear_start&lt;-.lfobj</t>
+  </si>
+  <si>
+    <t>hyear_start&lt;-.xts</t>
+  </si>
+  <si>
+    <t>is.lfobj</t>
+  </si>
+  <si>
+    <t>lfnacheck</t>
+  </si>
+  <si>
+    <t>Low flow object check for missing values.</t>
+  </si>
+  <si>
+    <t>lfnainterpolate</t>
+  </si>
+  <si>
+    <t>Interpolate missing values</t>
+  </si>
+  <si>
+    <t>lfstat</t>
+  </si>
+  <si>
+    <t>Simple Moving Average</t>
+  </si>
+  <si>
+    <t>MAM</t>
+  </si>
+  <si>
+    <t>Mean Annual Minimum</t>
+  </si>
+  <si>
+    <t>meanflow</t>
+  </si>
+  <si>
+    <t>Mean flow</t>
+  </si>
+  <si>
+    <t>multistationsreport</t>
+  </si>
+  <si>
+    <t>Report for several stations</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>Daily stream flow data used for low flow analysis</t>
+  </si>
+  <si>
+    <t>ngaruroro</t>
+  </si>
+  <si>
+    <t>pel_ev</t>
+  </si>
+  <si>
+    <t>plot.deficit</t>
+  </si>
+  <si>
+    <t>pooling</t>
+  </si>
+  <si>
+    <t>Pooling Procedures of Low Flow Events</t>
+  </si>
+  <si>
+    <t>pool_ic</t>
+  </si>
+  <si>
+    <t>pool_it</t>
+  </si>
+  <si>
+    <t>pool_ma</t>
+  </si>
+  <si>
+    <t>pool_sp</t>
+  </si>
+  <si>
+    <t>Q70</t>
+  </si>
+  <si>
+    <t>Qxx, Q95, Q90, Q70</t>
+  </si>
+  <si>
+    <t>Q90</t>
+  </si>
+  <si>
+    <t>Q95</t>
+  </si>
+  <si>
+    <t>qua_ev</t>
+  </si>
+  <si>
+    <t>Qxx</t>
+  </si>
+  <si>
+    <t>ray</t>
+  </si>
+  <si>
+    <t>readlfdata</t>
+  </si>
+  <si>
+    <t>Reads data sheets</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>recessionplot</t>
+  </si>
+  <si>
+    <t>reversing</t>
+  </si>
+  <si>
+    <t>rfa</t>
+  </si>
+  <si>
+    <t>Regional Frequency Analysis</t>
+  </si>
+  <si>
+    <t>rfaplot</t>
+  </si>
+  <si>
+    <t>rpline</t>
+  </si>
+  <si>
+    <t>Highlight quantiles/return periods</t>
+  </si>
+  <si>
+    <t>sbplot</t>
+  </si>
+  <si>
+    <t>Seasonal Barchart</t>
+  </si>
+  <si>
+    <t>seasindex</t>
+  </si>
+  <si>
+    <t>Seasonality Index</t>
+  </si>
+  <si>
+    <t>seasratio</t>
+  </si>
+  <si>
+    <t>Seasonality Ratio</t>
+  </si>
+  <si>
+    <t>seglenplot</t>
+  </si>
+  <si>
+    <t>Barchart of recession length</t>
+  </si>
+  <si>
+    <t>setlfunit</t>
+  </si>
+  <si>
+    <t>Define the unit to use in lf-plots</t>
+  </si>
+  <si>
+    <t>streamdef</t>
+  </si>
+  <si>
+    <t>streamdefplot</t>
+  </si>
+  <si>
+    <t>Streamflow Deficit Plot</t>
+  </si>
+  <si>
+    <t>summary.deficit</t>
+  </si>
+  <si>
+    <t>Object Summaries</t>
+  </si>
+  <si>
+    <t>trace_value</t>
+  </si>
+  <si>
+    <t>tyears</t>
+  </si>
+  <si>
+    <t>Calculate Low-Flow Quantiles for given Return Periods</t>
+  </si>
+  <si>
+    <t>tyearsS</t>
+  </si>
+  <si>
+    <t>vary_threshold</t>
+  </si>
+  <si>
+    <t>Create varying thresholds</t>
+  </si>
+  <si>
+    <t>water_year</t>
+  </si>
+  <si>
+    <t>Compute the water year</t>
+  </si>
+  <si>
+    <t>apply.seasonal</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimating populations quantiles of extreme values</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量历时曲线</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply an aggregation function seasonally.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double Mass Curve</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>双累积曲线</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interpolation NA values in a vector</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>插值</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set and retrieve unit of the discharge</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gringorten Plotting Positions</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个站点信息</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coerce to class lfobj</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>强转</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plot time series of deficits</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recession Constant</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recession diagnostic plot</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视化衰退周期</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Streamflow Deficit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>流速赤字</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw Paths to Points perpendicular to Coordinate Axis</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>在图上标记数值用直角的方式</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3631,7 +4055,7 @@
       <sz val="9"/>
       <color rgb="FF2E3033"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3649,166 +4073,45 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="News Gothic MT"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF5F6266"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="7"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3821,194 +4124,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4016,255 +4133,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4307,59 +4182,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4620,15 +4462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.95" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="121.25" customWidth="1"/>
@@ -4636,7 +4477,7 @@
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4647,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -4661,7 +4502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -4675,7 +4516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -4686,7 +4527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
@@ -4697,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -4708,7 +4549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -4716,7 +4557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +4565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:2">
+    <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
@@ -4732,7 +4573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:2">
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -4740,7 +4581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:3">
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -4751,7 +4592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:2">
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -4759,7 +4600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:3">
+    <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
@@ -4770,7 +4611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
@@ -4778,7 +4619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -4786,7 +4627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:2">
+    <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>37</v>
       </c>
@@ -4794,7 +4635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -4805,7 +4646,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:3">
+    <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>42</v>
       </c>
@@ -4816,7 +4657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>45</v>
       </c>
@@ -4824,7 +4665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
+    <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
@@ -4832,7 +4673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>49</v>
       </c>
@@ -4843,7 +4684,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
@@ -4854,7 +4695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:3">
+    <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>55</v>
       </c>
@@ -4865,7 +4706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:2">
+    <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>58</v>
       </c>
@@ -4873,7 +4714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:2">
+    <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>60</v>
       </c>
@@ -4881,7 +4722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:2">
+    <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
@@ -4889,7 +4730,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:3">
+    <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>64</v>
       </c>
@@ -4900,7 +4741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:2">
+    <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>67</v>
       </c>
@@ -4908,7 +4749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:3">
+    <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>69</v>
       </c>
@@ -4919,7 +4760,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:2">
+    <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
@@ -4927,7 +4768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:2">
+    <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>74</v>
       </c>
@@ -4935,7 +4776,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:2">
+    <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>76</v>
       </c>
@@ -4943,7 +4784,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:2">
+    <row r="33" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>78</v>
       </c>
@@ -4951,7 +4792,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:2">
+    <row r="34" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>80</v>
       </c>
@@ -4959,7 +4800,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:3">
+    <row r="35" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>82</v>
       </c>
@@ -4970,7 +4811,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:3">
+    <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>85</v>
       </c>
@@ -4981,7 +4822,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:2">
+    <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>88</v>
       </c>
@@ -4990,29 +4831,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="65.25" customWidth="1"/>
     <col min="2" max="2" width="97" customWidth="1"/>
     <col min="3" max="3" width="64.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>709</v>
       </c>
@@ -5020,7 +4860,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>711</v>
       </c>
@@ -5031,7 +4871,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>714</v>
       </c>
@@ -5042,7 +4882,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>717</v>
       </c>
@@ -5050,7 +4890,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>719</v>
       </c>
@@ -5058,7 +4898,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>721</v>
       </c>
@@ -5069,7 +4909,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>724</v>
       </c>
@@ -5080,7 +4920,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>727</v>
       </c>
@@ -5088,7 +4928,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>729</v>
       </c>
@@ -5096,7 +4936,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>730</v>
       </c>
@@ -5107,7 +4947,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>733</v>
       </c>
@@ -5115,7 +4955,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>735</v>
       </c>
@@ -5123,7 +4963,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>737</v>
       </c>
@@ -5131,7 +4971,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>739</v>
       </c>
@@ -5139,7 +4979,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>740</v>
       </c>
@@ -5147,7 +4987,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>741</v>
       </c>
@@ -5158,7 +4998,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>744</v>
       </c>
@@ -5169,7 +5009,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>747</v>
       </c>
@@ -5177,7 +5017,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>748</v>
       </c>
@@ -5185,7 +5025,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>750</v>
       </c>
@@ -5193,7 +5033,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>752</v>
       </c>
@@ -5201,7 +5041,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>753</v>
       </c>
@@ -5212,7 +5052,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>756</v>
       </c>
@@ -5223,7 +5063,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>758</v>
       </c>
@@ -5231,7 +5071,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>759</v>
       </c>
@@ -5239,7 +5079,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>760</v>
       </c>
@@ -5247,7 +5087,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>761</v>
       </c>
@@ -5255,7 +5095,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>762</v>
       </c>
@@ -5263,7 +5103,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>763</v>
       </c>
@@ -5271,7 +5111,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>764</v>
       </c>
@@ -5279,7 +5119,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>765</v>
       </c>
@@ -5287,7 +5127,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>766</v>
       </c>
@@ -5295,7 +5135,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>767</v>
       </c>
@@ -5303,7 +5143,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>768</v>
       </c>
@@ -5311,7 +5151,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>769</v>
       </c>
@@ -5319,7 +5159,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>770</v>
       </c>
@@ -5327,7 +5167,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>771</v>
       </c>
@@ -5335,7 +5175,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>772</v>
       </c>
@@ -5343,7 +5183,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>773</v>
       </c>
@@ -5351,7 +5191,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>774</v>
       </c>
@@ -5359,7 +5199,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>775</v>
       </c>
@@ -5367,7 +5207,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>776</v>
       </c>
@@ -5375,7 +5215,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>777</v>
       </c>
@@ -5383,7 +5223,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>778</v>
       </c>
@@ -5391,7 +5231,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>779</v>
       </c>
@@ -5399,7 +5239,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>780</v>
       </c>
@@ -5407,7 +5247,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>781</v>
       </c>
@@ -5415,7 +5255,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>782</v>
       </c>
@@ -5423,7 +5263,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>783</v>
       </c>
@@ -5431,7 +5271,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>784</v>
       </c>
@@ -5439,7 +5279,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>785</v>
       </c>
@@ -5447,7 +5287,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>786</v>
       </c>
@@ -5455,7 +5295,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>787</v>
       </c>
@@ -5463,7 +5303,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>788</v>
       </c>
@@ -5471,7 +5311,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>789</v>
       </c>
@@ -5479,7 +5319,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>790</v>
       </c>
@@ -5487,7 +5327,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>791</v>
       </c>
@@ -5495,7 +5335,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>792</v>
       </c>
@@ -5503,7 +5343,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>793</v>
       </c>
@@ -5511,7 +5351,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>794</v>
       </c>
@@ -5519,7 +5359,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>795</v>
       </c>
@@ -5527,7 +5367,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>796</v>
       </c>
@@ -5535,7 +5375,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>797</v>
       </c>
@@ -5543,7 +5383,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>798</v>
       </c>
@@ -5551,7 +5391,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>799</v>
       </c>
@@ -5559,7 +5399,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>800</v>
       </c>
@@ -5567,7 +5407,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>801</v>
       </c>
@@ -5575,7 +5415,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>802</v>
       </c>
@@ -5583,7 +5423,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>803</v>
       </c>
@@ -5591,7 +5431,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>804</v>
       </c>
@@ -5599,7 +5439,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>805</v>
       </c>
@@ -5607,7 +5447,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>806</v>
       </c>
@@ -5615,7 +5455,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>807</v>
       </c>
@@ -5623,7 +5463,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>808</v>
       </c>
@@ -5631,7 +5471,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>248</v>
       </c>
@@ -5640,29 +5480,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.25" customWidth="1"/>
     <col min="2" max="2" width="136.5" customWidth="1"/>
-    <col min="3" max="3" width="40.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>809</v>
       </c>
@@ -5673,7 +5512,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>812</v>
       </c>
@@ -5684,7 +5523,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>815</v>
       </c>
@@ -5695,7 +5534,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>817</v>
       </c>
@@ -5703,7 +5542,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>818</v>
       </c>
@@ -5714,7 +5553,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>821</v>
       </c>
@@ -5725,7 +5564,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>823</v>
       </c>
@@ -5733,7 +5572,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>825</v>
       </c>
@@ -5744,7 +5583,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>828</v>
       </c>
@@ -5755,7 +5594,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>831</v>
       </c>
@@ -5763,7 +5602,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>833</v>
       </c>
@@ -5771,7 +5610,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:2">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>835</v>
       </c>
@@ -5779,7 +5618,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:2">
+    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>836</v>
       </c>
@@ -5787,7 +5626,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:2">
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>837</v>
       </c>
@@ -5795,7 +5634,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:2">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>838</v>
       </c>
@@ -5803,7 +5642,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:2">
+    <row r="16" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>839</v>
       </c>
@@ -5811,7 +5650,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:2">
+    <row r="17" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>840</v>
       </c>
@@ -5819,7 +5658,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>841</v>
       </c>
@@ -5827,7 +5666,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>842</v>
       </c>
@@ -5835,7 +5674,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>843</v>
       </c>
@@ -5843,7 +5682,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>845</v>
       </c>
@@ -5851,7 +5690,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>847</v>
       </c>
@@ -5859,7 +5698,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>849</v>
       </c>
@@ -5870,7 +5709,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>852</v>
       </c>
@@ -5881,7 +5720,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>854</v>
       </c>
@@ -5889,7 +5728,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>855</v>
       </c>
@@ -5897,7 +5736,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>857</v>
       </c>
@@ -5905,7 +5744,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>858</v>
       </c>
@@ -5913,7 +5752,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>859</v>
       </c>
@@ -5921,7 +5760,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>860</v>
       </c>
@@ -5929,7 +5768,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>861</v>
       </c>
@@ -5937,7 +5776,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>862</v>
       </c>
@@ -5945,7 +5784,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>200</v>
       </c>
@@ -5953,7 +5792,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>863</v>
       </c>
@@ -5961,7 +5800,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>864</v>
       </c>
@@ -5969,7 +5808,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>865</v>
       </c>
@@ -5977,7 +5816,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>866</v>
       </c>
@@ -5985,7 +5824,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>868</v>
       </c>
@@ -5993,7 +5832,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>870</v>
       </c>
@@ -6001,7 +5840,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>872</v>
       </c>
@@ -6009,7 +5848,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>874</v>
       </c>
@@ -6017,7 +5856,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>876</v>
       </c>
@@ -6025,7 +5864,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>878</v>
       </c>
@@ -6033,7 +5872,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>880</v>
       </c>
@@ -6041,7 +5880,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>882</v>
       </c>
@@ -6049,7 +5888,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>884</v>
       </c>
@@ -6057,7 +5896,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>886</v>
       </c>
@@ -6065,7 +5904,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>246</v>
       </c>
@@ -6074,29 +5913,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A13:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>889</v>
       </c>
@@ -6104,7 +5942,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>891</v>
       </c>
@@ -6115,7 +5953,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>894</v>
       </c>
@@ -6126,7 +5964,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>896</v>
       </c>
@@ -6134,7 +5972,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>897</v>
       </c>
@@ -6142,7 +5980,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>898</v>
       </c>
@@ -6150,7 +5988,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>899</v>
       </c>
@@ -6158,7 +5996,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>900</v>
       </c>
@@ -6166,7 +6004,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>901</v>
       </c>
@@ -6174,7 +6012,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>902</v>
       </c>
@@ -6182,7 +6020,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>903</v>
       </c>
@@ -6190,7 +6028,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>904</v>
       </c>
@@ -6198,7 +6036,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>905</v>
       </c>
@@ -6209,7 +6047,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>908</v>
       </c>
@@ -6217,7 +6055,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>910</v>
       </c>
@@ -6225,7 +6063,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>912</v>
       </c>
@@ -6233,7 +6071,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>914</v>
       </c>
@@ -6241,7 +6079,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>916</v>
       </c>
@@ -6249,7 +6087,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>918</v>
       </c>
@@ -6257,7 +6095,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>920</v>
       </c>
@@ -6268,7 +6106,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>923</v>
       </c>
@@ -6279,7 +6117,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>926</v>
       </c>
@@ -6287,7 +6125,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>928</v>
       </c>
@@ -6295,7 +6133,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>930</v>
       </c>
@@ -6303,7 +6141,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>932</v>
       </c>
@@ -6311,7 +6149,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>934</v>
       </c>
@@ -6319,7 +6157,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>936</v>
       </c>
@@ -6330,7 +6168,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>939</v>
       </c>
@@ -6339,28 +6177,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="98.75" customWidth="1"/>
-    <col min="3" max="3" width="45.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="45.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>940</v>
       </c>
@@ -6368,7 +6205,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>942</v>
       </c>
@@ -6379,7 +6216,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>945</v>
       </c>
@@ -6387,7 +6224,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>947</v>
       </c>
@@ -6395,7 +6232,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>949</v>
       </c>
@@ -6403,7 +6240,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>951</v>
       </c>
@@ -6411,7 +6248,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>953</v>
       </c>
@@ -6419,7 +6256,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>955</v>
       </c>
@@ -6430,7 +6267,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>958</v>
       </c>
@@ -6438,7 +6275,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>960</v>
       </c>
@@ -6446,7 +6283,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>962</v>
       </c>
@@ -6454,7 +6291,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>963</v>
       </c>
@@ -6465,7 +6302,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>966</v>
       </c>
@@ -6473,7 +6310,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>968</v>
       </c>
@@ -6481,7 +6318,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>970</v>
       </c>
@@ -6489,7 +6326,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>972</v>
       </c>
@@ -6497,7 +6334,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>974</v>
       </c>
@@ -6505,7 +6342,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>976</v>
       </c>
@@ -6514,29 +6351,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="35.875" customWidth="1"/>
     <col min="2" max="2" width="58.5" customWidth="1"/>
     <col min="3" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="4" width="34.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>977</v>
       </c>
@@ -6547,7 +6383,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>980</v>
       </c>
@@ -6558,7 +6394,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>983</v>
       </c>
@@ -6566,7 +6402,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>985</v>
       </c>
@@ -6577,7 +6413,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>988</v>
       </c>
@@ -6585,7 +6421,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>990</v>
       </c>
@@ -6596,7 +6432,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>993</v>
       </c>
@@ -6607,7 +6443,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>996</v>
       </c>
@@ -6615,7 +6451,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>997</v>
       </c>
@@ -6626,7 +6462,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>1000</v>
       </c>
@@ -6634,7 +6470,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1002</v>
       </c>
@@ -6642,7 +6478,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>1004</v>
       </c>
@@ -6653,7 +6489,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>1006</v>
       </c>
@@ -6661,7 +6497,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1008</v>
       </c>
@@ -6669,7 +6505,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1010</v>
       </c>
@@ -6677,7 +6513,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1012</v>
       </c>
@@ -6686,30 +6522,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:C154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="74.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="74.5" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1014</v>
       </c>
@@ -6717,7 +6552,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1015</v>
       </c>
@@ -6725,7 +6560,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1016</v>
       </c>
@@ -6733,7 +6568,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1017</v>
       </c>
@@ -6741,7 +6576,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1018</v>
       </c>
@@ -6749,12 +6584,12 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1019</v>
       </c>
@@ -6765,7 +6600,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1022</v>
       </c>
@@ -6773,7 +6608,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1023</v>
       </c>
@@ -6781,7 +6616,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1024</v>
       </c>
@@ -6789,7 +6624,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1025</v>
       </c>
@@ -6797,17 +6632,17 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1027</v>
       </c>
@@ -6815,7 +6650,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1029</v>
       </c>
@@ -6823,7 +6658,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1030</v>
       </c>
@@ -6831,7 +6666,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1031</v>
       </c>
@@ -6839,7 +6674,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1032</v>
       </c>
@@ -6847,12 +6682,12 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1033</v>
       </c>
@@ -6863,12 +6698,12 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1036</v>
       </c>
@@ -6879,7 +6714,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1039</v>
       </c>
@@ -6890,7 +6725,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1042</v>
       </c>
@@ -6898,7 +6733,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1043</v>
       </c>
@@ -6906,7 +6741,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1044</v>
       </c>
@@ -6914,7 +6749,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1045</v>
       </c>
@@ -6922,12 +6757,12 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1046</v>
       </c>
@@ -6935,12 +6770,12 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1048</v>
       </c>
@@ -6951,7 +6786,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1051</v>
       </c>
@@ -6959,7 +6794,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1052</v>
       </c>
@@ -6967,7 +6802,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1053</v>
       </c>
@@ -6975,7 +6810,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1054</v>
       </c>
@@ -6983,12 +6818,12 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>1055</v>
       </c>
@@ -6999,7 +6834,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1058</v>
       </c>
@@ -7007,7 +6842,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1059</v>
       </c>
@@ -7015,7 +6850,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1060</v>
       </c>
@@ -7023,7 +6858,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1061</v>
       </c>
@@ -7031,7 +6866,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1062</v>
       </c>
@@ -7042,7 +6877,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1065</v>
       </c>
@@ -7050,7 +6885,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1066</v>
       </c>
@@ -7058,7 +6893,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1067</v>
       </c>
@@ -7066,7 +6901,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1068</v>
       </c>
@@ -7074,7 +6909,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>1069</v>
       </c>
@@ -7082,7 +6917,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1071</v>
       </c>
@@ -7090,7 +6925,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1072</v>
       </c>
@@ -7098,7 +6933,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1073</v>
       </c>
@@ -7106,7 +6941,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1074</v>
       </c>
@@ -7114,7 +6949,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1075</v>
       </c>
@@ -7122,7 +6957,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1077</v>
       </c>
@@ -7130,7 +6965,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1078</v>
       </c>
@@ -7138,7 +6973,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1079</v>
       </c>
@@ -7146,7 +6981,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1080</v>
       </c>
@@ -7154,7 +6989,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1081</v>
       </c>
@@ -7162,7 +6997,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>1082</v>
       </c>
@@ -7170,7 +7005,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1084</v>
       </c>
@@ -7178,7 +7013,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1085</v>
       </c>
@@ -7186,7 +7021,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1086</v>
       </c>
@@ -7194,7 +7029,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1087</v>
       </c>
@@ -7202,12 +7037,12 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>1089</v>
       </c>
@@ -7218,7 +7053,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1092</v>
       </c>
@@ -7226,7 +7061,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1093</v>
       </c>
@@ -7234,7 +7069,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1094</v>
       </c>
@@ -7242,7 +7077,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1095</v>
       </c>
@@ -7250,7 +7085,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -7258,7 +7093,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1097</v>
       </c>
@@ -7266,7 +7101,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1098</v>
       </c>
@@ -7274,7 +7109,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1099</v>
       </c>
@@ -7282,7 +7117,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1100</v>
       </c>
@@ -7290,7 +7125,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1101</v>
       </c>
@@ -7298,12 +7133,12 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>1103</v>
       </c>
@@ -7314,7 +7149,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1106</v>
       </c>
@@ -7322,7 +7157,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1107</v>
       </c>
@@ -7330,7 +7165,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1108</v>
       </c>
@@ -7338,7 +7173,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1109</v>
       </c>
@@ -7346,7 +7181,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>1110</v>
       </c>
@@ -7354,7 +7189,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1112</v>
       </c>
@@ -7362,7 +7197,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1113</v>
       </c>
@@ -7370,7 +7205,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1114</v>
       </c>
@@ -7378,7 +7213,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1115</v>
       </c>
@@ -7386,7 +7221,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1116</v>
       </c>
@@ -7394,7 +7229,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1118</v>
       </c>
@@ -7402,7 +7237,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1119</v>
       </c>
@@ -7410,7 +7245,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1120</v>
       </c>
@@ -7418,7 +7253,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>1121</v>
       </c>
@@ -7426,7 +7261,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>1123</v>
       </c>
@@ -7437,7 +7272,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>1126</v>
       </c>
@@ -7445,12 +7280,12 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1128</v>
       </c>
@@ -7458,7 +7293,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1130</v>
       </c>
@@ -7466,7 +7301,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1131</v>
       </c>
@@ -7474,7 +7309,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1132</v>
       </c>
@@ -7482,7 +7317,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1133</v>
       </c>
@@ -7490,7 +7325,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1134</v>
       </c>
@@ -7498,7 +7333,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1136</v>
       </c>
@@ -7506,7 +7341,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1137</v>
       </c>
@@ -7514,7 +7349,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1138</v>
       </c>
@@ -7522,7 +7357,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>1139</v>
       </c>
@@ -7530,7 +7365,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1141</v>
       </c>
@@ -7538,7 +7373,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1142</v>
       </c>
@@ -7546,7 +7381,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1143</v>
       </c>
@@ -7554,7 +7389,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1144</v>
       </c>
@@ -7562,7 +7397,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1145</v>
       </c>
@@ -7570,7 +7405,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1147</v>
       </c>
@@ -7578,7 +7413,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1148</v>
       </c>
@@ -7586,7 +7421,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1149</v>
       </c>
@@ -7594,7 +7429,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1150</v>
       </c>
@@ -7602,7 +7437,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1151</v>
       </c>
@@ -7610,7 +7445,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>1152</v>
       </c>
@@ -7618,7 +7453,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1153</v>
       </c>
@@ -7626,7 +7461,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1154</v>
       </c>
@@ -7634,7 +7469,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1155</v>
       </c>
@@ -7642,7 +7477,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1156</v>
       </c>
@@ -7650,7 +7485,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1157</v>
       </c>
@@ -7661,7 +7496,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1160</v>
       </c>
@@ -7669,7 +7504,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1161</v>
       </c>
@@ -7677,7 +7512,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1162</v>
       </c>
@@ -7685,7 +7520,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1163</v>
       </c>
@@ -7693,7 +7528,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1164</v>
       </c>
@@ -7701,7 +7536,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1166</v>
       </c>
@@ -7709,7 +7544,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1167</v>
       </c>
@@ -7717,7 +7552,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1168</v>
       </c>
@@ -7725,7 +7560,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1169</v>
       </c>
@@ -7733,12 +7568,12 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1170</v>
       </c>
@@ -7749,7 +7584,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1173</v>
       </c>
@@ -7757,7 +7592,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1174</v>
       </c>
@@ -7765,7 +7600,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1175</v>
       </c>
@@ -7773,12 +7608,12 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1176</v>
       </c>
@@ -7786,7 +7621,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1178</v>
       </c>
@@ -7794,7 +7629,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1179</v>
       </c>
@@ -7802,7 +7637,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1180</v>
       </c>
@@ -7810,7 +7645,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1182</v>
       </c>
@@ -7818,7 +7653,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1183</v>
       </c>
@@ -7826,7 +7661,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1184</v>
       </c>
@@ -7834,7 +7669,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1185</v>
       </c>
@@ -7843,28 +7678,713 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAC99B5-A066-41A5-9808-6524231D682C}">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="2" max="2" width="77.875" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.8796296296296" customWidth="1"/>
-    <col min="2" max="2" width="76.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="40.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="76.875" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7875,7 +8395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
@@ -7886,7 +8406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>93</v>
       </c>
@@ -7894,7 +8414,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>94</v>
       </c>
@@ -7905,7 +8425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:3">
+    <row r="5" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>97</v>
       </c>
@@ -7916,7 +8436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:3">
+    <row r="6" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>100</v>
       </c>
@@ -7927,7 +8447,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
+    <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>103</v>
       </c>
@@ -7935,7 +8455,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
+    <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>105</v>
       </c>
@@ -7943,7 +8463,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:2">
+    <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>107</v>
       </c>
@@ -7951,7 +8471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:3">
+    <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>109</v>
       </c>
@@ -7962,7 +8482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:2">
+    <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>112</v>
       </c>
@@ -7970,7 +8490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:2">
+    <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>114</v>
       </c>
@@ -7978,7 +8498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:2">
+    <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>116</v>
       </c>
@@ -7986,7 +8506,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:2">
+    <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>118</v>
       </c>
@@ -7994,7 +8514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
+    <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>120</v>
       </c>
@@ -8002,7 +8522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:3">
+    <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>122</v>
       </c>
@@ -8013,7 +8533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:3">
+    <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>125</v>
       </c>
@@ -8024,7 +8544,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
+    <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>128</v>
       </c>
@@ -8032,7 +8552,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:2">
+    <row r="19" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>130</v>
       </c>
@@ -8040,7 +8560,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:3">
+    <row r="20" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>132</v>
       </c>
@@ -8051,7 +8571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:3">
+    <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>135</v>
       </c>
@@ -8063,29 +8583,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.6296296296296" customWidth="1"/>
-    <col min="2" max="2" width="92.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="51.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="54.625" customWidth="1"/>
+    <col min="2" max="2" width="92.625" customWidth="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -8096,7 +8615,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>141</v>
       </c>
@@ -8107,7 +8626,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>144</v>
       </c>
@@ -8115,7 +8634,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -8126,7 +8645,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -8137,7 +8656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -8148,7 +8667,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>154</v>
       </c>
@@ -8159,7 +8678,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>157</v>
       </c>
@@ -8170,7 +8689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>160</v>
       </c>
@@ -8181,7 +8700,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -8192,7 +8711,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>166</v>
       </c>
@@ -8203,7 +8722,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -8214,7 +8733,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>170</v>
       </c>
@@ -8225,7 +8744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>173</v>
       </c>
@@ -8236,7 +8755,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -8244,7 +8763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -8255,7 +8774,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>179</v>
       </c>
@@ -8266,7 +8785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -8277,7 +8796,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>185</v>
       </c>
@@ -8288,7 +8807,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>188</v>
       </c>
@@ -8299,7 +8818,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
@@ -8307,7 +8826,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>192</v>
       </c>
@@ -8315,7 +8834,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>194</v>
       </c>
@@ -8326,7 +8845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>197</v>
       </c>
@@ -8334,7 +8853,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>198</v>
       </c>
@@ -8342,7 +8861,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>200</v>
       </c>
@@ -8350,7 +8869,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>202</v>
       </c>
@@ -8358,7 +8877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>204</v>
       </c>
@@ -8366,7 +8885,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>206</v>
       </c>
@@ -8377,7 +8896,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>209</v>
       </c>
@@ -8388,7 +8907,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>212</v>
       </c>
@@ -8399,7 +8918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>214</v>
       </c>
@@ -8410,7 +8929,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -8421,7 +8940,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>220</v>
       </c>
@@ -8429,7 +8948,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>222</v>
       </c>
@@ -8440,7 +8959,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>225</v>
       </c>
@@ -8448,7 +8967,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>226</v>
       </c>
@@ -8456,7 +8975,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>227</v>
       </c>
@@ -8464,7 +8983,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>228</v>
       </c>
@@ -8472,7 +8991,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>229</v>
       </c>
@@ -8483,7 +9002,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>232</v>
       </c>
@@ -8491,7 +9010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -8499,7 +9018,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>235</v>
       </c>
@@ -8507,7 +9026,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>236</v>
       </c>
@@ -8515,7 +9034,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>238</v>
       </c>
@@ -8526,7 +9045,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>240</v>
       </c>
@@ -8534,7 +9053,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -8542,7 +9061,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>243</v>
       </c>
@@ -8550,7 +9069,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>244</v>
       </c>
@@ -8561,7 +9080,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>246</v>
       </c>
@@ -8569,7 +9088,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>248</v>
       </c>
@@ -8578,29 +9097,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="57.75" customWidth="1"/>
-    <col min="2" max="2" width="87.8796296296296" customWidth="1"/>
-    <col min="3" max="3" width="23.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="87.875" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>249</v>
       </c>
@@ -8611,7 +9129,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>252</v>
       </c>
@@ -8619,7 +9137,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>254</v>
       </c>
@@ -8630,7 +9148,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>257</v>
       </c>
@@ -8641,7 +9159,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>260</v>
       </c>
@@ -8649,7 +9167,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>262</v>
       </c>
@@ -8660,7 +9178,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>265</v>
       </c>
@@ -8668,7 +9186,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>267</v>
       </c>
@@ -8679,7 +9197,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>270</v>
       </c>
@@ -8690,7 +9208,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>273</v>
       </c>
@@ -8701,7 +9219,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -8712,7 +9230,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>278</v>
       </c>
@@ -8723,7 +9241,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>281</v>
       </c>
@@ -8734,7 +9252,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -8742,7 +9260,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -8750,7 +9268,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -8758,7 +9276,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>290</v>
       </c>
@@ -8769,7 +9287,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -8777,7 +9295,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>295</v>
       </c>
@@ -8785,7 +9303,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -8793,7 +9311,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>299</v>
       </c>
@@ -8804,7 +9322,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -8812,7 +9330,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>304</v>
       </c>
@@ -8823,7 +9341,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>307</v>
       </c>
@@ -8834,7 +9352,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -8842,7 +9360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>312</v>
       </c>
@@ -8853,7 +9371,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>315</v>
       </c>
@@ -8861,7 +9379,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>317</v>
       </c>
@@ -8869,7 +9387,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -8877,7 +9395,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>321</v>
       </c>
@@ -8885,7 +9403,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>323</v>
       </c>
@@ -8893,7 +9411,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>325</v>
       </c>
@@ -8904,7 +9422,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>328</v>
       </c>
@@ -8912,7 +9430,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>330</v>
       </c>
@@ -8920,7 +9438,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>332</v>
       </c>
@@ -8928,7 +9446,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>334</v>
       </c>
@@ -8936,7 +9454,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -8944,7 +9462,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>338</v>
       </c>
@@ -8952,7 +9470,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -8960,7 +9478,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>342</v>
       </c>
@@ -8968,7 +9486,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>344</v>
       </c>
@@ -8976,7 +9494,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>346</v>
       </c>
@@ -8984,7 +9502,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>348</v>
       </c>
@@ -8992,7 +9510,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>350</v>
       </c>
@@ -9000,7 +9518,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>352</v>
       </c>
@@ -9012,29 +9530,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="42.125" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="53.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -9042,12 +9559,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>358</v>
       </c>
@@ -9055,7 +9572,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>360</v>
       </c>
@@ -9063,7 +9580,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>361</v>
       </c>
@@ -9071,7 +9588,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>362</v>
       </c>
@@ -9079,7 +9596,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>363</v>
       </c>
@@ -9087,12 +9604,12 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>365</v>
       </c>
@@ -9103,12 +9620,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>369</v>
       </c>
@@ -9116,7 +9633,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>371</v>
       </c>
@@ -9124,7 +9641,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>372</v>
       </c>
@@ -9132,7 +9649,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>373</v>
       </c>
@@ -9140,7 +9657,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>374</v>
       </c>
@@ -9148,7 +9665,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>375</v>
       </c>
@@ -9156,7 +9673,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>377</v>
       </c>
@@ -9164,7 +9681,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>378</v>
       </c>
@@ -9172,7 +9689,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>379</v>
       </c>
@@ -9180,7 +9697,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>380</v>
       </c>
@@ -9188,7 +9705,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>381</v>
       </c>
@@ -9199,7 +9716,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>384</v>
       </c>
@@ -9210,7 +9727,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>387</v>
       </c>
@@ -9218,7 +9735,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -9226,7 +9743,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>390</v>
       </c>
@@ -9234,7 +9751,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>391</v>
       </c>
@@ -9242,7 +9759,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>392</v>
       </c>
@@ -9250,7 +9767,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>393</v>
       </c>
@@ -9261,7 +9778,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>396</v>
       </c>
@@ -9269,7 +9786,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>397</v>
       </c>
@@ -9280,7 +9797,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>400</v>
       </c>
@@ -9288,7 +9805,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>401</v>
       </c>
@@ -9296,7 +9813,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>402</v>
       </c>
@@ -9304,7 +9821,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>403</v>
       </c>
@@ -9315,7 +9832,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>406</v>
       </c>
@@ -9323,7 +9840,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>407</v>
       </c>
@@ -9331,7 +9848,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>408</v>
       </c>
@@ -9339,7 +9856,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>409</v>
       </c>
@@ -9347,12 +9864,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>411</v>
       </c>
@@ -9363,7 +9880,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>414</v>
       </c>
@@ -9374,7 +9891,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>417</v>
       </c>
@@ -9385,7 +9902,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>420</v>
       </c>
@@ -9393,7 +9910,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>422</v>
       </c>
@@ -9404,7 +9921,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>425</v>
       </c>
@@ -9412,7 +9929,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>426</v>
       </c>
@@ -9420,7 +9937,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>427</v>
       </c>
@@ -9428,12 +9945,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>429</v>
       </c>
@@ -9444,7 +9961,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>432</v>
       </c>
@@ -9452,7 +9969,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>433</v>
       </c>
@@ -9460,7 +9977,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>434</v>
       </c>
@@ -9468,7 +9985,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>435</v>
       </c>
@@ -9476,7 +9993,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>436</v>
       </c>
@@ -9487,7 +10004,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>439</v>
       </c>
@@ -9495,7 +10012,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>440</v>
       </c>
@@ -9503,7 +10020,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>441</v>
       </c>
@@ -9511,12 +10028,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>443</v>
       </c>
@@ -9527,12 +10044,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>447</v>
       </c>
@@ -9540,7 +10057,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>449</v>
       </c>
@@ -9551,7 +10068,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>452</v>
       </c>
@@ -9559,7 +10076,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>453</v>
       </c>
@@ -9567,7 +10084,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>454</v>
       </c>
@@ -9575,7 +10092,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>456</v>
       </c>
@@ -9583,7 +10100,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>458</v>
       </c>
@@ -9591,7 +10108,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>459</v>
       </c>
@@ -9602,12 +10119,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>463</v>
       </c>
@@ -9618,7 +10135,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>466</v>
       </c>
@@ -9626,7 +10143,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>467</v>
       </c>
@@ -9634,7 +10151,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>468</v>
       </c>
@@ -9642,7 +10159,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>469</v>
       </c>
@@ -9650,7 +10167,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>471</v>
       </c>
@@ -9658,7 +10175,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>472</v>
       </c>
@@ -9666,7 +10183,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>473</v>
       </c>
@@ -9674,7 +10191,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>474</v>
       </c>
@@ -9682,7 +10199,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>476</v>
       </c>
@@ -9690,7 +10207,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>477</v>
       </c>
@@ -9698,12 +10215,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>479</v>
       </c>
@@ -9711,12 +10228,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>482</v>
       </c>
@@ -9724,7 +10241,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>484</v>
       </c>
@@ -9732,7 +10249,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>485</v>
       </c>
@@ -9740,7 +10257,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>486</v>
       </c>
@@ -9748,7 +10265,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>488</v>
       </c>
@@ -9756,7 +10273,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>490</v>
       </c>
@@ -9764,7 +10281,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>492</v>
       </c>
@@ -9772,7 +10289,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>493</v>
       </c>
@@ -9780,7 +10297,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>494</v>
       </c>
@@ -9788,7 +10305,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>495</v>
       </c>
@@ -9796,7 +10313,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>496</v>
       </c>
@@ -9804,7 +10321,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>497</v>
       </c>
@@ -9812,7 +10329,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -9820,7 +10337,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>500</v>
       </c>
@@ -9828,7 +10345,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>501</v>
       </c>
@@ -9836,7 +10353,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>502</v>
       </c>
@@ -9844,7 +10361,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>503</v>
       </c>
@@ -9852,12 +10369,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>506</v>
       </c>
@@ -9865,12 +10382,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>509</v>
       </c>
@@ -9878,12 +10395,12 @@
         <v>510</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>512</v>
       </c>
@@ -9891,7 +10408,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>513</v>
       </c>
@@ -9899,7 +10416,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>515</v>
       </c>
@@ -9907,7 +10424,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>516</v>
       </c>
@@ -9915,7 +10432,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>517</v>
       </c>
@@ -9923,7 +10440,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>518</v>
       </c>
@@ -9931,7 +10448,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>519</v>
       </c>
@@ -9939,7 +10456,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>521</v>
       </c>
@@ -9947,7 +10464,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>523</v>
       </c>
@@ -9955,7 +10472,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -9963,7 +10480,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>525</v>
       </c>
@@ -9971,7 +10488,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>526</v>
       </c>
@@ -9979,7 +10496,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>527</v>
       </c>
@@ -9987,7 +10504,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>528</v>
       </c>
@@ -9995,7 +10512,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>529</v>
       </c>
@@ -10003,7 +10520,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>531</v>
       </c>
@@ -10011,7 +10528,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>533</v>
       </c>
@@ -10019,7 +10536,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>534</v>
       </c>
@@ -10027,7 +10544,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>535</v>
       </c>
@@ -10035,7 +10552,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>536</v>
       </c>
@@ -10043,7 +10560,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>537</v>
       </c>
@@ -10051,7 +10568,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>538</v>
       </c>
@@ -10059,7 +10576,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>539</v>
       </c>
@@ -10067,7 +10584,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>540</v>
       </c>
@@ -10075,7 +10592,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>541</v>
       </c>
@@ -10083,7 +10600,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>543</v>
       </c>
@@ -10091,7 +10608,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>544</v>
       </c>
@@ -10099,7 +10616,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>545</v>
       </c>
@@ -10107,7 +10624,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>546</v>
       </c>
@@ -10115,7 +10632,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>547</v>
       </c>
@@ -10123,7 +10640,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>548</v>
       </c>
@@ -10131,7 +10648,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>549</v>
       </c>
@@ -10139,7 +10656,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>550</v>
       </c>
@@ -10147,7 +10664,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>551</v>
       </c>
@@ -10155,7 +10672,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>552</v>
       </c>
@@ -10163,7 +10680,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>553</v>
       </c>
@@ -10171,7 +10688,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>554</v>
       </c>
@@ -10179,7 +10696,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>555</v>
       </c>
@@ -10187,7 +10704,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>556</v>
       </c>
@@ -10195,12 +10712,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>558</v>
       </c>
@@ -10208,12 +10725,12 @@
         <v>559</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>561</v>
       </c>
@@ -10221,12 +10738,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>564</v>
       </c>
@@ -10234,12 +10751,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>567</v>
       </c>
@@ -10248,28 +10765,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="93.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="43.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="93.125" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>569</v>
       </c>
@@ -10280,7 +10796,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -10291,7 +10807,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -10302,7 +10818,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>578</v>
       </c>
@@ -10310,7 +10826,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>580</v>
       </c>
@@ -10318,7 +10834,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -10330,28 +10846,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
     <col min="2" max="2" width="87.25" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>585</v>
       </c>
@@ -10362,7 +10877,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>588</v>
       </c>
@@ -10373,7 +10888,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>591</v>
       </c>
@@ -10384,7 +10899,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>594</v>
       </c>
@@ -10395,7 +10910,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>597</v>
       </c>
@@ -10406,7 +10921,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>600</v>
       </c>
@@ -10417,7 +10932,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>603</v>
       </c>
@@ -10428,7 +10943,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>606</v>
       </c>
@@ -10439,7 +10954,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>609</v>
       </c>
@@ -10450,7 +10965,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>612</v>
       </c>
@@ -10461,7 +10976,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>615</v>
       </c>
@@ -10469,7 +10984,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>617</v>
       </c>
@@ -10480,7 +10995,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>620</v>
       </c>
@@ -10491,7 +11006,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>623</v>
       </c>
@@ -10502,7 +11017,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>626</v>
       </c>
@@ -10510,7 +11025,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>628</v>
       </c>
@@ -10518,7 +11033,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>630</v>
       </c>
@@ -10526,7 +11041,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>632</v>
       </c>
@@ -10534,7 +11049,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>634</v>
       </c>
@@ -10542,7 +11057,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>636</v>
       </c>
@@ -10550,7 +11065,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>637</v>
       </c>
@@ -10561,7 +11076,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>640</v>
       </c>
@@ -10570,28 +11085,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="90.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="90.125" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>642</v>
       </c>
@@ -10599,7 +11113,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>644</v>
       </c>
@@ -10610,7 +11124,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>647</v>
       </c>
@@ -10618,7 +11132,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>649</v>
       </c>
@@ -10630,28 +11144,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A46" sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.75" customWidth="1"/>
     <col min="2" max="2" width="100.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>651</v>
       </c>
@@ -10659,7 +11172,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>653</v>
       </c>
@@ -10667,7 +11180,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>655</v>
       </c>
@@ -10675,7 +11188,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>657</v>
       </c>
@@ -10683,7 +11196,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>659</v>
       </c>
@@ -10691,7 +11204,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>661</v>
       </c>
@@ -10699,7 +11212,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>663</v>
       </c>
@@ -10707,7 +11220,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>665</v>
       </c>
@@ -10715,7 +11228,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>667</v>
       </c>
@@ -10723,7 +11236,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>669</v>
       </c>
@@ -10731,7 +11244,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>671</v>
       </c>
@@ -10739,7 +11252,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>673</v>
       </c>
@@ -10747,7 +11260,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>675</v>
       </c>
@@ -10755,7 +11268,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>676</v>
       </c>
@@ -10763,7 +11276,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>677</v>
       </c>
@@ -10771,7 +11284,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>678</v>
       </c>
@@ -10779,7 +11292,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>679</v>
       </c>
@@ -10787,7 +11300,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>680</v>
       </c>
@@ -10795,7 +11308,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>681</v>
       </c>
@@ -10803,7 +11316,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>682</v>
       </c>
@@ -10811,7 +11324,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>683</v>
       </c>
@@ -10819,7 +11332,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>684</v>
       </c>
@@ -10827,7 +11340,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>685</v>
       </c>
@@ -10835,7 +11348,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>686</v>
       </c>
@@ -10843,7 +11356,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>687</v>
       </c>
@@ -10851,7 +11364,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>688</v>
       </c>
@@ -10859,7 +11372,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>689</v>
       </c>
@@ -10867,7 +11380,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>690</v>
       </c>
@@ -10875,7 +11388,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>691</v>
       </c>
@@ -10883,7 +11396,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>692</v>
       </c>
@@ -10891,7 +11404,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>693</v>
       </c>
@@ -10899,7 +11412,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>694</v>
       </c>
@@ -10907,7 +11420,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>695</v>
       </c>
@@ -10915,7 +11428,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>696</v>
       </c>
@@ -10923,7 +11436,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>697</v>
       </c>
@@ -10931,7 +11444,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>698</v>
       </c>
@@ -10939,7 +11452,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>699</v>
       </c>
@@ -10947,7 +11460,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>700</v>
       </c>
@@ -10955,7 +11468,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>701</v>
       </c>
@@ -10963,7 +11476,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>702</v>
       </c>
@@ -10971,7 +11484,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>703</v>
       </c>
@@ -10979,7 +11492,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>704</v>
       </c>
@@ -10987,7 +11500,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>705</v>
       </c>
@@ -10995,7 +11508,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>706</v>
       </c>
@@ -11003,7 +11516,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>707</v>
       </c>
@@ -11011,7 +11524,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>708</v>
       </c>
@@ -11020,8 +11533,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
+++ b/大数据与智慧河流/关于水文处理R包的综述/hyfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\R_project\大数据与智慧河流\关于水文处理R包的综述\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1514DA79-FB5C-4FF2-9E86-DDC4C610DB4D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB7853BE-E03E-4F4A-AF8A-412D112F194C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hyfo" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,12 @@
     <sheet name="lfstat" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525" calcMode="manual"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="1322">
   <si>
     <t>Method</t>
   </si>
@@ -4015,6 +4016,14 @@
   </si>
   <si>
     <t>在图上标记数值用直角的方式</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索USGS流量计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>月相关系数</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -4465,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6361,7 +6370,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6486,7 +6495,7 @@
         <v>1005</v>
       </c>
       <c r="C12" t="s">
-        <v>746</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -8373,7 +8382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8593,8 +8602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8762,6 +8771,9 @@
       <c r="B15" t="s">
         <v>176</v>
       </c>
+      <c r="C15" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9099,7 +9111,7 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10856,7 +10868,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
